--- a/2年後期ゲーム制作 企画書・仕様書.xlsx
+++ b/2年後期ゲーム制作 企画書・仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maya\Desktop\2年後期ゲーム制作(Gitリポジトリ)\08Sueda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9570BA71-B03B-425B-B8FB-498AD7C0E5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6DB175-50B7-4A9A-AB9F-B710B3DCB780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="1812" windowWidth="17280" windowHeight="9984" xr2:uid="{60066F24-A639-4BD0-A830-39907AB3EBF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60066F24-A639-4BD0-A830-39907AB3EBF2}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>2年後期ゲーム制作 企画書</t>
     <rPh sb="1" eb="4">
@@ -42,10 +42,6 @@
   </si>
   <si>
     <t>ジャンル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3D</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -180,38 +176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動させる(Wキー：移動　Aキー：左回転　Dキー：右回転)</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カメラをプレイヤーの後方に配置させる</t>
-    <rPh sb="10" eb="12">
-      <t>コウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャンプ攻撃する(Jキー：ジャンプ攻撃)</t>
     <rPh sb="4" eb="6">
       <t>コウゲキ</t>
@@ -299,13 +263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>衝突判定をつける</t>
-    <rPh sb="0" eb="4">
-      <t>ショウトツハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HPをつける</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -342,6 +299,311 @@
     <rPh sb="21" eb="22">
       <t>ムラサキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動する(Wキー：移動　Aキー：左回転　Dキー：右回転)</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラをプレイヤーの後方に配置する</t>
+    <rPh sb="10" eb="12">
+      <t>コウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾を上下左右に発射する(出来れば弾にも色を付ける)</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ジョウゲサユウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボールのどれかに動きをつける(出来れば)</t>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝突判定をつける(ボールの攻撃に当たるとHPを減らす・壁や障害物への当たり判定)</t>
+    <rPh sb="0" eb="4">
+      <t>ショウトツハンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁を配置する</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物を配置する</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間・プレイヤーの残りHP・次に消すボールの色の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボールを全て破壊するとゲームクリアとでる表示</t>
+    <rPh sb="4" eb="5">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定の順番にプレイヤーの攻撃が当たると消滅する(攻撃が当たっても指定の順番でなければ消滅できないようにする)</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウメツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのHPが0になるとゲームオーバーとでる表示</t>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面の表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI・その他</t>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四角形のスイッチ</t>
+    <rPh sb="0" eb="3">
+      <t>シカッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色の設定(赤・オレンジ・黄・緑・青・藍色・紫)</t>
+  </si>
+  <si>
+    <t>プレイヤーに当たると消滅する</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特殊な壁を配置する(色を付ける)</t>
+    <rPh sb="0" eb="2">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四角形のスイッチにプレイヤーが当たると特殊な壁が消える(触れた四角形のスイッチの色と同じ色の壁が消える)</t>
+    <rPh sb="0" eb="3">
+      <t>シカッケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>シカッケイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGMや効果音をつける(出来れば)</t>
+    <rPh sb="4" eb="7">
+      <t>コウカオン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dアクションゲーム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -393,15 +655,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -513,25 +787,356 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -565,8 +1170,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3054,8 +3764,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3069,361 +3779,361 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>8</v>
+      <c r="A11" s="39" t="s">
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
+      <c r="A15" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="9"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="8"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="8"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="8"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="13"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="13"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="13"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="13"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" s="8"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B26" s="8"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="10"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" s="8"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="8"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B30" s="8"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="9"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="8"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="12"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B32" s="8"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="9"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B33" s="8"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="9"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="12"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="10"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3438,107 +4148,429 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" customWidth="1"/>
-    <col min="2" max="2" width="58.09765625" customWidth="1"/>
+    <col min="1" max="1" width="17.296875" customWidth="1"/>
+    <col min="2" max="2" width="96.5" customWidth="1"/>
     <col min="3" max="11" width="4.796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="C3" s="23">
         <v>0.1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="24">
         <v>0.2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="24">
         <v>0.3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="24">
         <v>0.4</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="24">
         <v>0.5</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="24">
         <v>0.6</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="24">
         <v>0.7</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="24">
         <v>0.8</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="24">
         <v>0.9</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="A4" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="41"/>
+      <c r="B5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="41"/>
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="41"/>
+      <c r="B7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="41"/>
+      <c r="B8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="42"/>
+      <c r="B9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="A10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="41"/>
+      <c r="B11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="41"/>
+      <c r="B12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="42"/>
+      <c r="B13" s="22" t="s">
         <v>24</v>
       </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="42"/>
+      <c r="B15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="41"/>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="41"/>
+      <c r="B18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="42"/>
+      <c r="B19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="36"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="47"/>
+      <c r="B21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="36"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="47"/>
+      <c r="B22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="36"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="47"/>
+      <c r="B23" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="36"/>
+    </row>
+    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="48"/>
+      <c r="B24" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="C2:L2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
